--- a/BE Defs/Water Special Handling Codes.xlsx
+++ b/BE Defs/Water Special Handling Codes.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B11E9A5-6887-4DB3-B4C6-0C5C1EAFA3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A30A66-66DD-4F24-921D-5A791248592E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30420" yWindow="2715" windowWidth="17850" windowHeight="11760" tabRatio="617" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="617" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FE Definitions" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Drop Downs" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FE Definitions'!$A$1:$S$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FE Definitions'!$A$1:$S$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="76">
   <si>
     <t>Boolean</t>
   </si>
@@ -182,9 +182,6 @@
     <t>audit_update_dt</t>
   </si>
   <si>
-    <t>timestamp</t>
-  </si>
-  <si>
     <t>Modified By</t>
   </si>
   <si>
@@ -227,18 +224,9 @@
     <t>wtr_spcl_hdlng_uuid</t>
   </si>
   <si>
-    <t>wtr_spcl_hdlng_cd</t>
-  </si>
-  <si>
-    <t>wtr_spcl_hdlng_nm</t>
-  </si>
-  <si>
     <t>Inactive Date</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>inactv_dt</t>
   </si>
   <si>
@@ -251,71 +239,95 @@
     <t>AK2</t>
   </si>
   <si>
+    <t>Pseudo-read-only: User can inactivate records, but they are otherwise not updatable or insertable</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Gov't is still reviewing the Handling Codes</t>
+  </si>
+  <si>
+    <t>There is NO MR Restriction assigned to Water Special Handing Codes</t>
+  </si>
+  <si>
+    <t>There is NO Empty Container boolean assigned to Water Special Handing Codes</t>
+  </si>
+  <si>
+    <t>Create the inactive date column</t>
+  </si>
+  <si>
+    <t>If val_enabled is false, inactive date = system date</t>
+  </si>
+  <si>
+    <t>Remove the val_enabled column in the table</t>
+  </si>
+  <si>
+    <t>Modify the RD services and UI to accommodate this change</t>
+  </si>
+  <si>
+    <t>Val_enabled is depricated, replaced by inactive date to provide continuity with the rest if IBS.  The column may be eliminated all together or maintained as a calculated column to reduce UI/Svcs rework</t>
+  </si>
+  <si>
+    <t>Note: The refn.water_special_handling_code.val_enabled column is to be removed from the table. Conversion is required.</t>
+  </si>
+  <si>
+    <t>The FE layout assumes the val_enabled column is eliminated</t>
+  </si>
+  <si>
+    <t>inactive_date</t>
+  </si>
+  <si>
+    <t>modified_by</t>
+  </si>
+  <si>
+    <t>create_date</t>
+  </si>
+  <si>
+    <t>update_date</t>
+  </si>
+  <si>
+    <t>user_comment</t>
+  </si>
+  <si>
+    <t>Timestamp with TZ</t>
+  </si>
+  <si>
+    <t>Handling Code</t>
+  </si>
+  <si>
+    <t>hdlng_cd</t>
+  </si>
+  <si>
     <t>AK3</t>
   </si>
   <si>
-    <t>Pseudo-read-only: User can inactivate records, but they are otherwise not updatable or insertable</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Gov't is still reviewing the Handling Codes</t>
-  </si>
-  <si>
-    <t>Water Special Handling Code</t>
-  </si>
-  <si>
-    <t>Water Special Handling Code Name</t>
-  </si>
-  <si>
-    <t>Water Special Handling Code Description</t>
-  </si>
-  <si>
-    <t>Available to Users</t>
-  </si>
-  <si>
-    <t>There is NO MR Restriction assigned to Water Special Handing Codes</t>
-  </si>
-  <si>
-    <t>There is NO Empty Container boolean assigned to Water Special Handing Codes</t>
-  </si>
-  <si>
-    <t>Create the inactive date column</t>
-  </si>
-  <si>
-    <t>If val_enabled is false, inactive date = system date</t>
-  </si>
-  <si>
-    <t>Remove the val_enabled column in the table</t>
-  </si>
-  <si>
-    <t>Modify the RD services and UI to accommodate this change</t>
-  </si>
-  <si>
-    <t>Val_enabled is depricated, replaced by inactive date to provide continuity with the rest if IBS.  The column may be eliminated all together or maintained as a calculated column to reduce UI/Svcs rework</t>
-  </si>
-  <si>
-    <t>wtr_spcl_hdlng_desc</t>
-  </si>
-  <si>
-    <t>Calculated</t>
-  </si>
-  <si>
-    <t>Based on the inactive date value</t>
-  </si>
-  <si>
-    <t>Note: The refn.water_special_handling_code.val_enabled column is to be removed from the table. Conversion is required.</t>
-  </si>
-  <si>
-    <t>The FE layout assumes the val_enabled column is eliminated</t>
+    <t>Handling Code Name</t>
+  </si>
+  <si>
+    <t>Handling Code Description</t>
+  </si>
+  <si>
+    <t>hdlng_cd_nm</t>
+  </si>
+  <si>
+    <t>hdlng_cd_desc</t>
+  </si>
+  <si>
+    <t>Version Token</t>
+  </si>
+  <si>
+    <t>vrsn_token</t>
+  </si>
+  <si>
+    <t>Bigint</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,21 +356,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -380,7 +377,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -403,24 +400,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -440,50 +424,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="30"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -825,11 +789,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6:T6"/>
+      <selection pane="bottomRight" activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,11 +801,11 @@
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38" bestFit="1" customWidth="1"/>
     <col min="5" max="15" width="11.28515625" customWidth="1"/>
     <col min="16" max="16" width="32.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18" style="4" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9" style="7" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="32.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -904,26 +868,26 @@
       <c r="S1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="12" t="s">
-        <v>54</v>
+      <c r="T1" s="11" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="9" t="str">
+        <f>SUBSTITUTE(LOWER(D2), " ", "_")</f>
+        <v>water_special_handling_code_uuid</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="8" t="str">
-        <f>SUBSTITUTE(LOWER(D2)," ","_")</f>
-        <v>water_special_handling_code_uuid</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>18</v>
@@ -953,36 +917,36 @@
         <v>18</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="11"/>
+      <c r="S2" s="10"/>
       <c r="T2" s="9"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="8" t="str">
-        <f t="shared" ref="C3:C11" si="0">SUBSTITUTE(LOWER(D3)," ","_")</f>
-        <v>water_special_handling_code</v>
+      <c r="B3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="9" t="str">
+        <f t="shared" ref="C3:C6" si="0">SUBSTITUTE(LOWER(D3), " ", "_")</f>
+        <v>handling_code</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>18</v>
@@ -1012,19 +976,19 @@
         <v>18</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="R3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="R3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="S3" s="11">
-        <v>30</v>
+      <c r="S3" s="10">
+        <v>1</v>
       </c>
       <c r="T3" s="9"/>
     </row>
@@ -1032,18 +996,18 @@
       <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="8" t="str">
+      <c r="B4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>water_special_handling_code_name</v>
+        <v>handling_code_name</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>18</v>
@@ -1072,19 +1036,19 @@
       <c r="N4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P4" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q4" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="R4" s="10" t="s">
+      <c r="O4" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="R4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="S4" s="11">
+      <c r="S4" s="10">
         <v>40</v>
       </c>
       <c r="T4" s="9"/>
@@ -1093,18 +1057,18 @@
       <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="14" t="str">
+      <c r="B5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>water_special_handling_code_description</v>
+        <v>handling_code_description</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>18</v>
@@ -1133,96 +1097,95 @@
       <c r="N5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P5" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q5" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="R5" s="10" t="s">
+      <c r="O5" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="R5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="11">
+      <c r="S5" s="10">
         <v>200</v>
       </c>
       <c r="T5" s="9"/>
     </row>
-    <row r="6" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="18" t="str">
+      <c r="B6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>available_to_users</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="20" t="s">
+        <v>version_token</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" s="15"/>
+      <c r="P6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="N6" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="O6" s="20"/>
-      <c r="P6" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="S6" s="23"/>
-      <c r="T6" s="16" t="s">
-        <v>69</v>
-      </c>
+      <c r="Q6" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="S6" s="10"/>
+      <c r="T6" s="9"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>inactive_date</v>
+      <c r="B7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>18</v>
@@ -1252,34 +1215,33 @@
         <v>18</v>
       </c>
       <c r="O7" s="1"/>
-      <c r="P7" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q7" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="R7" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="S7" s="11"/>
+      <c r="P7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="S7" s="10"/>
       <c r="T7" s="9"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>modified_by</v>
+      <c r="B8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>18</v>
@@ -1309,16 +1271,16 @@
         <v>18</v>
       </c>
       <c r="O8" s="1"/>
-      <c r="P8" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q8" s="11" t="s">
+      <c r="P8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="R8" s="11" t="s">
+      <c r="R8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="S8" s="11">
+      <c r="S8" s="10">
         <v>255</v>
       </c>
       <c r="T8" s="9"/>
@@ -1327,18 +1289,17 @@
       <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>create_date</v>
+      <c r="B9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>18</v>
@@ -1368,40 +1329,39 @@
         <v>18</v>
       </c>
       <c r="O9" s="1"/>
-      <c r="P9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q9" s="11" t="s">
+      <c r="P9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q9" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="R9" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="S9" s="11"/>
+      <c r="R9" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="S9" s="10"/>
       <c r="T9" s="9"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>update_date</v>
+      <c r="B10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>18</v>
@@ -1425,82 +1385,81 @@
         <v>18</v>
       </c>
       <c r="O10" s="1"/>
-      <c r="P10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q10" s="11" t="s">
+      <c r="P10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="R10" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="S10" s="11"/>
+      <c r="R10" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="S10" s="10"/>
       <c r="T10" s="9"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>user_comment</v>
+      <c r="B11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q11" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q11" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="R11" s="11" t="s">
+      <c r="R11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="S11" s="11">
+      <c r="S11" s="10">
         <v>2000</v>
       </c>
       <c r="T11" s="9"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D13" s="13"/>
+      <c r="D13" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S10" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:S11" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1512,65 +1471,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1643,52 +1602,6 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
@@ -1696,34 +1609,27 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <_dlc_DocId xmlns="19394dc9-165d-4ff9-a833-4f1e8c9e3ae6">SDDCIBS-31-3341</_dlc_DocId>
+    <_dlc_DocId xmlns="19394dc9-165d-4ff9-a833-4f1e8c9e3ae6">SDDCIBS-86-4981</_dlc_DocId>
     <_dlc_DocIdUrl xmlns="19394dc9-165d-4ff9-a833-4f1e8c9e3ae6">
-      <Url>https://icenter.saic.com/sites/SDDC_IBS/TeamWork/_layouts/15/DocIdRedir.aspx?ID=SDDCIBS-31-3341</Url>
-      <Description>SDDCIBS-31-3341</Description>
+      <Url>https://icenter.saic.com/sites/SDDC_IBS/DD/_layouts/15/DocIdRedir.aspx?ID=SDDCIBS-86-4981</Url>
+      <Description>SDDCIBS-86-4981</Description>
     </_dlc_DocIdUrl>
-    <Document_x0020_Description xmlns="37aa9156-1da4-4a16-b1d3-1adaa39f5571" xsi:nil="true"/>
-    <fba0470b712f401b95567fdc4bc448a6 xmlns="19394dc9-165d-4ff9-a833-4f1e8c9e3ae6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </fba0470b712f401b95567fdc4bc448a6>
-    <TaxCatchAll xmlns="19394dc9-165d-4ff9-a833-4f1e8c9e3ae6"/>
-    <i89710ca700a4618b02094ef44fecf12 xmlns="19394dc9-165d-4ff9-a833-4f1e8c9e3ae6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </i89710ca700a4618b02094ef44fecf12>
-    <g4dfacd043274e11b56cf67f7005b8ec xmlns="19394dc9-165d-4ff9-a833-4f1e8c9e3ae6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </g4dfacd043274e11b56cf67f7005b8ec>
+    <BA_x0020_Status xmlns="30af0e6c-fb0f-4cf2-92c7-a9a1337e8d4c">00 - Not Applicable</BA_x0020_Status>
+    <Review_x0020_Status xmlns="30af0e6c-fb0f-4cf2-92c7-a9a1337e8d4c">0 - Not Started</Review_x0020_Status>
+    <Status xmlns="30af0e6c-fb0f-4cf2-92c7-a9a1337e8d4c">1 - BA Review Complete BA</Status>
   </documentManagement>
 </p:properties>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100415424C19026BC49B5EA0131A9E3D729" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="37a1284088f8ff4fc12cd7c94d60b13d">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="19394dc9-165d-4ff9-a833-4f1e8c9e3ae6" xmlns:ns3="37aa9156-1da4-4a16-b1d3-1adaa39f5571" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a208efcc21a76ee1ce8b26b8299098a4" ns2:_="" ns3:_="">
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007FB426663D69234BA812EC131647569A" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a92c5e7dfbd7caefa437dfa88e2a052d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="19394dc9-165d-4ff9-a833-4f1e8c9e3ae6" xmlns:ns3="30af0e6c-fb0f-4cf2-92c7-a9a1337e8d4c" xmlns:ns4="c573e1e2-7e4d-4052-8204-17434c8fd311" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c6e8421e2fdda22fd7cedbb3e7f6e0bc" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="19394dc9-165d-4ff9-a833-4f1e8c9e3ae6"/>
-    <xsd:import namespace="37aa9156-1da4-4a16-b1d3-1adaa39f5571"/>
+    <xsd:import namespace="30af0e6c-fb0f-4cf2-92c7-a9a1337e8d4c"/>
+    <xsd:import namespace="c573e1e2-7e4d-4052-8204-17434c8fd311"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -1733,12 +1639,10 @@
                 <xsd:element ref="ns2:_dlc_DocId" minOccurs="0"/>
                 <xsd:element ref="ns2:_dlc_DocIdUrl" minOccurs="0"/>
                 <xsd:element ref="ns2:_dlc_DocIdPersistId" minOccurs="0"/>
-                <xsd:element ref="ns3:Document_x0020_Description" minOccurs="0"/>
-                <xsd:element ref="ns2:i89710ca700a4618b02094ef44fecf12" minOccurs="0"/>
-                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:fba0470b712f401b95567fdc4bc448a6" minOccurs="0"/>
-                <xsd:element ref="ns2:g4dfacd043274e11b56cf67f7005b8ec" minOccurs="0"/>
-                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:Status"/>
+                <xsd:element ref="ns3:Review_x0020_Status" minOccurs="0"/>
+                <xsd:element ref="ns3:BA_x0020_Status" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1771,39 +1675,46 @@
         <xsd:restriction base="dms:Boolean"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="i89710ca700a4618b02094ef44fecf12" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="i89710ca700a4618b02094ef44fecf12" ma:taxonomyFieldName="Document_x0020_Type" ma:displayName="Document Type" ma:indexed="true" ma:default="" ma:fieldId="{289710ca-700a-4618-b020-94ef44fecf12}" ma:sspId="20214cad-cac3-4ab9-9550-9f73725da02b" ma:termSetId="7dc8783c-1e42-4aed-b405-f840e01cf9bb" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="30af0e6c-fb0f-4cf2-92c7-a9a1337e8d4c" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="Status" ma:index="11" ma:displayName="Status" ma:default="1 - BA Review Complete BA" ma:format="Dropdown" ma:internalName="Status">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Choice">
+          <xsd:enumeration value="1 - BA Review Complete BA"/>
+          <xsd:enumeration value="2 - Peer Reviewed by BA"/>
+          <xsd:enumeration value="3 - D&amp;D Team Lead Reviewed"/>
+        </xsd:restriction>
+      </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{19c1fb0c-9abc-4627-b21e-1e7e2823ab51}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="19394dc9-165d-4ff9-a833-4f1e8c9e3ae6">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
+    <xsd:element name="Review_x0020_Status" ma:index="12" nillable="true" ma:displayName="Review Status" ma:default="0 - Not Started" ma:format="Dropdown" ma:internalName="Review_x0020_Status">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Choice">
+          <xsd:enumeration value="0 - Not Started"/>
+          <xsd:enumeration value="1 - BA Review Complete"/>
+          <xsd:enumeration value="2 - Peer Review Complete"/>
+          <xsd:enumeration value="3 - D&amp;D Lead Review Complete"/>
+        </xsd:restriction>
+      </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="fba0470b712f401b95567fdc4bc448a6" ma:index="16" nillable="true" ma:taxonomy="true" ma:internalName="fba0470b712f401b95567fdc4bc448a6" ma:taxonomyFieldName="IBS_x0020_Context" ma:displayName="IBS Context" ma:default="" ma:fieldId="{fba0470b-712f-401b-9556-7fdc4bc448a6}" ma:taxonomyMulti="true" ma:sspId="20214cad-cac3-4ab9-9550-9f73725da02b" ma:termSetId="da90f0b4-08e5-4650-84ff-116a529fb791" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
+    <xsd:element name="BA_x0020_Status" ma:index="13" nillable="true" ma:displayName="BA Status" ma:default="00 - Not Applicable" ma:format="Dropdown" ma:internalName="BA_x0020_Status">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Choice">
+          <xsd:enumeration value="00 - Not Applicable"/>
+          <xsd:enumeration value="01 - Ready for Peer Review"/>
+          <xsd:enumeration value="02 - Ready for D&amp;D Lead Review"/>
+          <xsd:enumeration value="03 - Ready for Grooming"/>
+          <xsd:enumeration value="04 - Ready for V1"/>
+          <xsd:enumeration value="05 - Moved to V1"/>
+        </xsd:restriction>
+      </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="g4dfacd043274e11b56cf67f7005b8ec" ma:index="18" nillable="true" ma:taxonomy="true" ma:internalName="g4dfacd043274e11b56cf67f7005b8ec" ma:taxonomyFieldName="Originator" ma:displayName="Originator" ma:indexed="true" ma:default="" ma:fieldId="{04dfacd0-4327-4e11-b56c-f67f7005b8ec}" ma:sspId="20214cad-cac3-4ab9-9550-9f73725da02b" ma:termSetId="dc612104-a320-40d7-b3ef-b089881e4d14" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="20" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c573e1e2-7e4d-4052-8204-17434c8fd311" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="14" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -1821,17 +1732,6 @@
           </xsd:extension>
         </xsd:complexContent>
       </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="37aa9156-1da4-4a16-b1d3-1adaa39f5571" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="Document_x0020_Description" ma:index="11" nillable="true" ma:displayName="Document Description" ma:description="Document Description" ma:internalName="Document_x0020_Description">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -1933,15 +1833,53 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F9B8412-675A-4B7D-A2C9-D0B1C7A2EEC1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32E1D17C-F12A-45F5-AB68-A8FFCFADD5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -1949,7 +1887,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B4A4EEB-844A-4308-9325-2C2E7BF2A9F4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -1967,6 +1905,30 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6058A359-04DD-421E-9A49-F3B63CAE796A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="19394dc9-165d-4ff9-a833-4f1e8c9e3ae6"/>
+    <ds:schemaRef ds:uri="30af0e6c-fb0f-4cf2-92c7-a9a1337e8d4c"/>
+    <ds:schemaRef ds:uri="c573e1e2-7e4d-4052-8204-17434c8fd311"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A76DA197-D177-45C0-A243-3A715E398176}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F9B8412-675A-4B7D-A2C9-D0B1C7A2EEC1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>